--- a/usefulTools/UATForApproval.xlsx
+++ b/usefulTools/UATForApproval.xlsx
@@ -16,11 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="205">
   <si>
     <t>Result coding: 1 = Pass (full functionality with no unexpected errors), 0 = Fail (lack of required functionality or reproducible error during testing), 9 = Conditional (partial functionality, error during testing which cannot be reproduced, poor user experience or other constraints) X = Functionality which is desirable for future iterations of the system. these items are not necessary for user acceptance of this version of the system</t>
   </si>
   <si>
+    <t>Test Run #1</t>
+  </si>
+  <si>
+    <t>Test Run #2</t>
+  </si>
+  <si>
     <t>#</t>
   </si>
   <si>
@@ -36,7 +42,10 @@
     <t>Fail (on any item)</t>
   </si>
   <si>
-    <t>User</t>
+    <t>Test Manager</t>
+  </si>
+  <si>
+    <t>Tester</t>
   </si>
   <si>
     <t>Test time</t>
@@ -810,14 +819,14 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
@@ -839,10 +848,10 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="5" numFmtId="165" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
@@ -856,6 +865,9 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -864,9 +876,6 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
@@ -892,11 +901,11 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="166" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
@@ -916,6 +925,10 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="2" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -928,10 +941,6 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="2" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -966,14 +975,14 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="12" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="11" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="12" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="12" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0">
@@ -1073,29 +1082,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:117"/>
+  <dimension ref="1:116"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="61" zoomScaleNormal="61" zoomScalePageLayoutView="100">
-      <selection activeCell="E13" activeCellId="0" pane="topLeft" sqref="E13"/>
+      <selection activeCell="J8" activeCellId="0" pane="topLeft" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.51764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.28235294117647"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="34.2705882352941"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="3" width="44.2352941176471"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="3" width="40.4705882352941"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="3" width="34.0117647058824"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="8.93333333333333"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="15.0235294117647"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="6.38039215686275"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="37.2823529411765"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="4" width="8.93333333333333"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="4" width="17.7176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="6.38039215686275"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="37.2823529411765"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.2666666666667"/>
-    <col collapsed="false" hidden="false" max="1021" min="15" style="7" width="9.68235294117647"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.68235294117647"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="12.2274509803922"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="8.93333333333333"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="15.0235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="6.38039215686275"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="4" width="37.2823529411765"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="4" width="11.3803921568627"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="8.93333333333333"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="17.7176470588235"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="6.38039215686275"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="4" width="37.2823529411765"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.2666666666667"/>
+    <col collapsed="false" hidden="false" max="1023" min="17" style="7" width="9.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="68.95" outlineLevel="0" r="1">
@@ -1111,46 +1122,58 @@
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="3">
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="26.9" outlineLevel="0" r="3">
       <c r="A3" s="10" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="G3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="I3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>8</v>
-      </c>
       <c r="M3" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="4">
@@ -1160,14 +1183,16 @@
       <c r="D4" s="16"/>
       <c r="E4" s="17"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="19"/>
       <c r="I4" s="20"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="22"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="22"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="5">
       <c r="A5" s="15"/>
@@ -1175,1461 +1200,1547 @@
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="17"/>
-      <c r="F5" s="23"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="23"/>
-      <c r="H5" s="19"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="20"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="22"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="22"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="B6" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="25"/>
+        <v>13</v>
+      </c>
       <c r="G6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="8">
+      <c r="H7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="68.5" outlineLevel="0" r="8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="30" t="n">
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="30" t="n">
         <v>41338.5347222222</v>
       </c>
-      <c r="L8" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" s="29" t="s">
-        <v>19</v>
+      <c r="N8" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="28" t="s">
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="124.5" outlineLevel="0" r="9">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="30" t="n">
+      <c r="M9" s="30" t="n">
         <v>41338.5347222222</v>
       </c>
-      <c r="L9" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="29" t="s">
-        <v>24</v>
+      <c r="N9" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="28" t="s">
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="B10" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="31"/>
+        <v>28</v>
+      </c>
       <c r="G10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="112.55" outlineLevel="0" r="11">
       <c r="B11" s="26" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="30" t="n">
+        <v>31</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="30" t="n">
         <v>41338.5347222222</v>
       </c>
-      <c r="H11" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>30</v>
+      <c r="I11" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="30" t="n">
+        <v>33</v>
+      </c>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="30" t="n">
         <v>41338.5347222222</v>
       </c>
-      <c r="L11" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>31</v>
+      <c r="N11" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="28" t="s">
+        <v>34</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="69" outlineLevel="0" r="12">
       <c r="B12" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="31"/>
+        <v>35</v>
+      </c>
       <c r="G12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="127.1" outlineLevel="0" r="13">
       <c r="B13" s="26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="30" t="n">
         <v>41338.5347222222</v>
       </c>
-      <c r="H13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="29"/>
+      <c r="I13" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
-      <c r="L13" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L13" s="29"/>
       <c r="M13" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="83.25" outlineLevel="0" r="14">
+      <c r="N13" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="28"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105.2" outlineLevel="0" r="14">
       <c r="B14" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>34</v>
-      </c>
       <c r="D14" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="30" t="n">
         <v>41338.5347222222</v>
       </c>
-      <c r="H14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="29"/>
+      <c r="I14" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
-      <c r="L14" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L14" s="29"/>
       <c r="M14" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="83.25" outlineLevel="0" r="15">
+      <c r="N14" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="28"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="110.1" outlineLevel="0" r="15">
       <c r="B15" s="26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="30" t="n">
         <v>41338.5347222222</v>
       </c>
-      <c r="H15" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="29"/>
+      <c r="I15" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
-      <c r="L15" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L15" s="29"/>
       <c r="M15" s="29"/>
+      <c r="N15" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="83.25" outlineLevel="0" r="16">
       <c r="B16" s="26" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="30" t="n">
         <v>41338.5347222222</v>
       </c>
-      <c r="H16" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="29"/>
+      <c r="I16" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
-      <c r="L16" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L16" s="29"/>
       <c r="M16" s="29"/>
+      <c r="N16" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="65.25" outlineLevel="0" r="17">
       <c r="B17" s="26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="30" t="n">
         <v>41338.5347222222</v>
       </c>
-      <c r="H17" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="29"/>
+      <c r="I17" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J17" s="28"/>
       <c r="K17" s="28"/>
-      <c r="L17" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L17" s="29"/>
       <c r="M17" s="29"/>
+      <c r="N17" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="65.25" outlineLevel="0" r="18">
       <c r="B18" s="26" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="30" t="n">
         <v>41338.5347222222</v>
       </c>
-      <c r="H18" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="29"/>
+      <c r="I18" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J18" s="28"/>
       <c r="K18" s="28"/>
-      <c r="L18" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L18" s="29"/>
       <c r="M18" s="29"/>
+      <c r="N18" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="75" outlineLevel="0" r="19">
       <c r="B19" s="26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="30" t="n">
         <v>41338.5347222222</v>
       </c>
-      <c r="H19" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="29"/>
+      <c r="I19" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J19" s="28"/>
       <c r="K19" s="28"/>
-      <c r="L19" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L19" s="29"/>
       <c r="M19" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
+      <c r="N19" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" s="28"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="100.3" outlineLevel="0" r="20">
       <c r="B20" s="26" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="30" t="n">
         <v>41338.5347222222</v>
       </c>
-      <c r="H20" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="29"/>
+      <c r="I20" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J20" s="28"/>
       <c r="K20" s="28"/>
-      <c r="L20" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L20" s="29"/>
       <c r="M20" s="29"/>
+      <c r="N20" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="150.75" outlineLevel="0" r="21">
       <c r="B21" s="26" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="30" t="n">
         <v>41338.5347222222</v>
       </c>
-      <c r="H21" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="29"/>
+      <c r="I21" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
-      <c r="L21" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L21" s="29"/>
       <c r="M21" s="29"/>
+      <c r="N21" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="150.75" outlineLevel="0" r="22">
       <c r="B22" s="26" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="30" t="n">
         <v>41338.5347222222</v>
       </c>
-      <c r="H22" s="21" t="n">
+      <c r="I22" s="21" t="n">
         <v>9</v>
       </c>
-      <c r="I22" s="29"/>
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
-      <c r="L22" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" s="29" t="s">
-        <v>46</v>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" s="28" t="s">
+        <v>49</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="206.25" outlineLevel="0" r="23">
       <c r="B23" s="26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="30" t="n">
         <v>41338.5347222222</v>
       </c>
-      <c r="H23" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="29"/>
+      <c r="I23" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J23" s="28"/>
       <c r="K23" s="28"/>
-      <c r="L23" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L23" s="29"/>
       <c r="M23" s="29"/>
+      <c r="N23" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="B24" s="26" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="30" t="n">
         <v>41338.5347222222</v>
       </c>
-      <c r="H24" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="29"/>
+      <c r="I24" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J24" s="28"/>
       <c r="K24" s="28"/>
-      <c r="L24" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L24" s="29"/>
       <c r="M24" s="29"/>
+      <c r="N24" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90.75" outlineLevel="0" r="25">
       <c r="B25" s="26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="30" t="n">
         <v>41338.5395833333</v>
       </c>
-      <c r="H25" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="29"/>
+      <c r="I25" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
-      <c r="L25" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L25" s="29"/>
       <c r="M25" s="29"/>
+      <c r="N25" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="83.25" outlineLevel="0" r="26">
       <c r="B26" s="26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="30" t="n">
         <v>41338.5395833333</v>
       </c>
-      <c r="H26" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="29"/>
+      <c r="I26" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J26" s="28"/>
       <c r="K26" s="28"/>
-      <c r="L26" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L26" s="29"/>
       <c r="M26" s="29"/>
+      <c r="N26" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="85.5" outlineLevel="0" r="27">
       <c r="B27" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="27" t="s">
-        <v>49</v>
-      </c>
       <c r="D27" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="30" t="n">
         <v>41338.5395833333</v>
       </c>
-      <c r="H27" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="29"/>
+      <c r="I27" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J27" s="28"/>
       <c r="K27" s="28"/>
-      <c r="L27" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L27" s="29"/>
       <c r="M27" s="29"/>
+      <c r="N27" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="73.5" outlineLevel="0" r="28">
       <c r="B28" s="26" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="30" t="n">
         <v>41338.5395833333</v>
       </c>
-      <c r="H28" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="29"/>
+      <c r="I28" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J28" s="28"/>
       <c r="K28" s="28"/>
-      <c r="L28" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L28" s="29"/>
       <c r="M28" s="29"/>
+      <c r="N28" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="98.25" outlineLevel="0" r="29">
       <c r="B29" s="26" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="30" t="n">
         <v>41338.5395833333</v>
       </c>
-      <c r="H29" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="J29" s="28"/>
+      <c r="I29" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="28" t="s">
+        <v>58</v>
+      </c>
       <c r="K29" s="28"/>
-      <c r="L29" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L29" s="29"/>
       <c r="M29" s="29"/>
+      <c r="N29" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="30">
       <c r="B30" s="26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="30" t="n">
         <v>41338.5395833333</v>
       </c>
-      <c r="H30" s="21" t="n">
+      <c r="I30" s="21" t="n">
         <v>9</v>
       </c>
-      <c r="I30" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="J30" s="28"/>
+      <c r="J30" s="28" t="s">
+        <v>60</v>
+      </c>
       <c r="K30" s="28"/>
-      <c r="L30" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L30" s="29"/>
       <c r="M30" s="29"/>
+      <c r="N30" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="171.35" outlineLevel="0" r="31">
       <c r="B31" s="26" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="30" t="n">
         <v>41338.5409722222</v>
       </c>
-      <c r="H31" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="I31" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" s="29"/>
       <c r="M31" s="29"/>
+      <c r="N31" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="171.35" outlineLevel="0" r="32">
       <c r="B32" s="26" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F32" s="28"/>
+      <c r="G32" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="30" t="n">
         <v>41338.5409722222</v>
       </c>
-      <c r="H32" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="29"/>
+      <c r="I32" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J32" s="28"/>
       <c r="K32" s="28"/>
-      <c r="L32" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L32" s="29"/>
       <c r="M32" s="29"/>
+      <c r="N32" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="153" outlineLevel="0" r="33">
       <c r="B33" s="26" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="30" t="n">
         <v>41338.5409722222</v>
       </c>
-      <c r="H33" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" s="29"/>
+      <c r="I33" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J33" s="28"/>
       <c r="K33" s="28"/>
-      <c r="L33" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L33" s="29"/>
       <c r="M33" s="29"/>
+      <c r="N33" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="109.5" outlineLevel="0" r="34">
       <c r="B34" s="26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="30" t="n">
         <v>41338.5409722222</v>
       </c>
-      <c r="H34" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="29"/>
+      <c r="I34" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J34" s="28"/>
       <c r="K34" s="28"/>
-      <c r="L34" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L34" s="29"/>
       <c r="M34" s="29"/>
+      <c r="N34" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="124.5" outlineLevel="0" r="35">
       <c r="B35" s="26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F35" s="28"/>
+      <c r="G35" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="30" t="n">
         <v>41338.5409722222</v>
       </c>
-      <c r="H35" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" s="29"/>
+      <c r="I35" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J35" s="28"/>
       <c r="K35" s="28"/>
-      <c r="L35" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L35" s="29"/>
       <c r="M35" s="29"/>
+      <c r="N35" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="109.5" outlineLevel="0" r="36">
       <c r="B36" s="26" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F36" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F36" s="28"/>
+      <c r="G36" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="30" t="n">
         <v>41338.5409722222</v>
       </c>
-      <c r="H36" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" s="29"/>
+      <c r="I36" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J36" s="28"/>
       <c r="K36" s="28"/>
-      <c r="L36" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L36" s="29"/>
       <c r="M36" s="29"/>
+      <c r="N36" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="93.75" outlineLevel="0" r="37">
       <c r="B37" s="26" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F37" s="28"/>
+      <c r="G37" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="30" t="n">
         <v>41338.5409722222</v>
       </c>
-      <c r="H37" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" s="29"/>
+      <c r="I37" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J37" s="28"/>
       <c r="K37" s="28"/>
-      <c r="L37" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L37" s="29"/>
       <c r="M37" s="29"/>
+      <c r="N37" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="109.5" outlineLevel="0" r="38">
       <c r="B38" s="26" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F38" s="28"/>
+      <c r="G38" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="30" t="n">
         <v>41338.5409722222</v>
       </c>
-      <c r="H38" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" s="29"/>
+      <c r="I38" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J38" s="28"/>
       <c r="K38" s="28"/>
-      <c r="L38" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L38" s="29"/>
       <c r="M38" s="29"/>
+      <c r="N38" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="124.5" outlineLevel="0" r="39">
       <c r="B39" s="26" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F39" s="28"/>
+      <c r="G39" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" s="30" t="n">
         <v>41338.5409722222</v>
       </c>
-      <c r="H39" s="21" t="n">
+      <c r="I39" s="21" t="n">
         <v>9</v>
       </c>
-      <c r="I39" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="J39" s="28"/>
+      <c r="J39" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="K39" s="28"/>
-      <c r="L39" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L39" s="29"/>
       <c r="M39" s="29"/>
+      <c r="N39" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="124.5" outlineLevel="0" r="40">
       <c r="B40" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F40" s="31"/>
+        <v>70</v>
+      </c>
       <c r="G40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="41">
       <c r="B41" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="J41" s="28"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="28" t="s">
+        <v>75</v>
+      </c>
       <c r="K41" s="28"/>
-      <c r="L41" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="M41" s="29" t="s">
-        <v>74</v>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="O41" s="28" t="s">
+        <v>77</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.95" outlineLevel="0" r="42">
       <c r="B42" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" s="28"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="J42" s="28"/>
       <c r="K42" s="28"/>
-      <c r="L42" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" s="29" t="s">
-        <v>79</v>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" s="28" t="s">
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.95" outlineLevel="0" r="43">
       <c r="B43" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="F43" s="31"/>
+        <v>83</v>
+      </c>
       <c r="G43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.95" outlineLevel="0" r="44">
       <c r="B44" s="26" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="F44" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G44" s="30" t="n">
+        <v>87</v>
+      </c>
+      <c r="F44" s="28"/>
+      <c r="G44" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H44" s="30" t="n">
         <v>41338.6583333333</v>
       </c>
-      <c r="H44" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" s="29"/>
+      <c r="I44" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J44" s="28"/>
       <c r="K44" s="28"/>
-      <c r="L44" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L44" s="29"/>
       <c r="M44" s="29"/>
+      <c r="N44" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O44" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.95" outlineLevel="0" r="45">
       <c r="B45" s="26" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="F45" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G45" s="30" t="n">
+        <v>92</v>
+      </c>
+      <c r="F45" s="28"/>
+      <c r="G45" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H45" s="30" t="n">
         <v>41338.6583333333</v>
       </c>
-      <c r="H45" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" s="29"/>
+      <c r="I45" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J45" s="28"/>
       <c r="K45" s="28"/>
-      <c r="L45" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L45" s="29"/>
       <c r="M45" s="29"/>
+      <c r="N45" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.95" outlineLevel="0" r="46">
       <c r="B46" s="26" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="F46" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G46" s="30" t="n">
+        <v>96</v>
+      </c>
+      <c r="F46" s="28"/>
+      <c r="G46" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H46" s="30" t="n">
         <v>41338.6583333333</v>
       </c>
-      <c r="H46" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" s="29"/>
+      <c r="I46" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J46" s="28"/>
       <c r="K46" s="28"/>
-      <c r="L46" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L46" s="29"/>
       <c r="M46" s="29"/>
+      <c r="N46" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.95" outlineLevel="0" r="47">
       <c r="B47" s="26" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="F47" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G47" s="30" t="n">
+        <v>100</v>
+      </c>
+      <c r="F47" s="28"/>
+      <c r="G47" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H47" s="30" t="n">
         <v>41338.6583333333</v>
       </c>
-      <c r="H47" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" s="29"/>
+      <c r="I47" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J47" s="28"/>
       <c r="K47" s="28"/>
-      <c r="L47" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L47" s="29"/>
       <c r="M47" s="29"/>
+      <c r="N47" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.95" outlineLevel="0" r="48">
       <c r="B48" s="26" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F48" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G48" s="30" t="n">
+        <v>104</v>
+      </c>
+      <c r="F48" s="28"/>
+      <c r="G48" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H48" s="30" t="n">
         <v>41338.6583333333</v>
       </c>
-      <c r="H48" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" s="29"/>
+      <c r="I48" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J48" s="28"/>
       <c r="K48" s="28"/>
-      <c r="L48" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L48" s="29"/>
       <c r="M48" s="29"/>
+      <c r="N48" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.95" outlineLevel="0" r="49">
       <c r="B49" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F49" s="31"/>
+        <v>105</v>
+      </c>
       <c r="G49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="50" s="39">
       <c r="A50" s="32"/>
       <c r="B50" s="33" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D50" s="34" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="F50" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="G50" s="36" t="n">
+        <v>109</v>
+      </c>
+      <c r="F50" s="35"/>
+      <c r="G50" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="H50" s="37" t="n">
         <v>41338.6194444444</v>
       </c>
-      <c r="H50" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" s="38"/>
+      <c r="I50" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="J50" s="35"/>
       <c r="K50" s="35"/>
-      <c r="L50" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" s="38"/>
-      <c r="AMH50" s="0"/>
-      <c r="AMI50" s="0"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" s="35"/>
       <c r="AMJ50" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="51">
       <c r="A51" s="32"/>
       <c r="B51" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="34" t="s">
-        <v>104</v>
-      </c>
       <c r="D51" s="34" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="F51" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="G51" s="36" t="n">
+        <v>109</v>
+      </c>
+      <c r="F51" s="35"/>
+      <c r="G51" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="H51" s="37" t="n">
         <v>41338.6194444444</v>
       </c>
-      <c r="H51" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" s="38"/>
+      <c r="I51" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="J51" s="35"/>
       <c r="K51" s="35"/>
-      <c r="L51" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" s="38"/>
-      <c r="N51" s="39"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" s="35"/>
+      <c r="P51" s="39"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="52">
       <c r="A52" s="32"/>
       <c r="B52" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D52" s="34" t="s">
-        <v>105</v>
-      </c>
       <c r="E52" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="F52" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="G52" s="36" t="n">
+        <v>109</v>
+      </c>
+      <c r="F52" s="35"/>
+      <c r="G52" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="H52" s="37" t="n">
         <v>41338.6194444444</v>
       </c>
-      <c r="H52" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" s="38"/>
+      <c r="I52" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="J52" s="35"/>
       <c r="K52" s="35"/>
-      <c r="L52" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" s="38"/>
-      <c r="N52" s="39"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" s="35"/>
+      <c r="P52" s="39"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="53">
       <c r="A53" s="32"/>
       <c r="B53" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="E53" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="F53" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="G53" s="36" t="n">
+      <c r="F53" s="35"/>
+      <c r="G53" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="H53" s="37" t="n">
         <v>41338.6194444444</v>
       </c>
-      <c r="H53" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" s="38"/>
+      <c r="I53" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="J53" s="35"/>
       <c r="K53" s="35"/>
-      <c r="L53" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" s="38"/>
-      <c r="N53" s="39"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" s="35"/>
+      <c r="P53" s="39"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="75" outlineLevel="0" r="54">
       <c r="A54" s="32"/>
       <c r="B54" s="33" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D54" s="34" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E54" s="34" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="37"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
       <c r="I54" s="38"/>
       <c r="J54" s="35"/>
       <c r="K54" s="35"/>
-      <c r="L54" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" s="38"/>
-      <c r="N54" s="39"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" s="35"/>
+      <c r="P54" s="39"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="79.5" outlineLevel="0" r="55">
       <c r="B55" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F55" s="31"/>
+        <v>114</v>
+      </c>
       <c r="G55" s="31"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="75.75" outlineLevel="0" r="56">
       <c r="B56" s="40" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C56" s="41"/>
       <c r="D56" s="41"/>
       <c r="E56" s="41"/>
       <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="21"/>
       <c r="J56" s="28"/>
       <c r="K56" s="28"/>
-      <c r="L56" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" s="29" t="s">
-        <v>113</v>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O56" s="28" t="s">
+        <v>116</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="70.5" outlineLevel="0" r="57">
       <c r="A57" s="42"/>
       <c r="B57" s="40" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D57" s="41"/>
       <c r="E57" s="41"/>
-      <c r="F57" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="G57" s="36" t="n">
+      <c r="F57" s="43"/>
+      <c r="G57" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="H57" s="37" t="n">
         <v>41338.5868055556</v>
       </c>
-      <c r="H57" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="N57" s="44"/>
+      <c r="I57" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="K57" s="43"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O57" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="P57" s="44"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="41.25" outlineLevel="0" r="58" s="39">
       <c r="A58" s="42"/>
       <c r="B58" s="40" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D58" s="41"/>
       <c r="E58" s="41"/>
-      <c r="F58" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="G58" s="36" t="n">
+      <c r="F58" s="43"/>
+      <c r="G58" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="H58" s="37" t="n">
         <v>41338.6611111111</v>
       </c>
-      <c r="H58" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" s="43" t="s">
+      <c r="I58" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="AMH58" s="0"/>
-      <c r="AMI58" s="0"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O58" s="43" t="s">
+        <v>122</v>
+      </c>
       <c r="AMJ58" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="41.25" outlineLevel="0" r="59" s="39">
@@ -2638,1669 +2749,1742 @@
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
       <c r="E59" s="17"/>
-      <c r="F59" s="23"/>
+      <c r="F59" s="18"/>
       <c r="G59" s="23"/>
-      <c r="H59" s="19"/>
+      <c r="H59" s="23"/>
       <c r="I59" s="20"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="22"/>
-      <c r="AMH59" s="0"/>
-      <c r="AMI59" s="0"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="23"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="22"/>
       <c r="AMJ59" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="60">
       <c r="B60" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="F60" s="25"/>
+        <v>123</v>
+      </c>
       <c r="G60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="61">
+      <c r="H60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.45" outlineLevel="0" r="61">
       <c r="B61" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="F61" s="25"/>
+        <v>124</v>
+      </c>
       <c r="G61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="62">
       <c r="B62" s="26" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="F62" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G62" s="30" t="n">
+        <v>127</v>
+      </c>
+      <c r="F62" s="28"/>
+      <c r="G62" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H62" s="30" t="n">
         <v>41338.5916666667</v>
       </c>
-      <c r="H62" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" s="29"/>
-      <c r="J62" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K62" s="30" t="n">
+      <c r="I62" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M62" s="30" t="n">
         <v>41338.5347222222</v>
       </c>
-      <c r="L62" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" s="29" t="s">
-        <v>19</v>
+      <c r="N62" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O62" s="28" t="s">
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="45.75" outlineLevel="0" r="63" s="39">
       <c r="A63" s="1"/>
       <c r="B63" s="26" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F63" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G63" s="30" t="n">
+        <v>26</v>
+      </c>
+      <c r="F63" s="28"/>
+      <c r="G63" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H63" s="30" t="n">
         <v>41338.5916666667</v>
       </c>
-      <c r="H63" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" s="29"/>
-      <c r="J63" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K63" s="30" t="n">
+      <c r="I63" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M63" s="30" t="n">
         <v>41338.5347222222</v>
       </c>
-      <c r="L63" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="N63" s="0"/>
-      <c r="AMH63" s="0"/>
-      <c r="AMI63" s="0"/>
+      <c r="N63" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P63" s="0"/>
       <c r="AMJ63" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="64">
       <c r="B64" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F64" s="25"/>
+        <v>28</v>
+      </c>
       <c r="G64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="25"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.05" outlineLevel="0" r="65">
       <c r="B65" s="26" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D65" s="27"/>
       <c r="E65" s="27"/>
-      <c r="F65" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G65" s="30" t="n">
+      <c r="F65" s="28"/>
+      <c r="G65" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H65" s="30" t="n">
         <v>41338.5916666667</v>
       </c>
-      <c r="H65" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" s="29"/>
+      <c r="I65" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J65" s="28"/>
       <c r="K65" s="28"/>
-      <c r="L65" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L65" s="29"/>
       <c r="M65" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="61.5" outlineLevel="0" r="66">
+      <c r="N65" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" s="28"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="66">
       <c r="B66" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F66" s="25"/>
+        <v>35</v>
+      </c>
       <c r="G66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="67">
-      <c r="B67" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="25"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="67">
+      <c r="B67" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F67" s="28"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="O67" s="28" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="68">
       <c r="B68" s="26" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="21"/>
       <c r="J68" s="28"/>
       <c r="K68" s="28"/>
-      <c r="L68" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="M68" s="29" t="s">
-        <v>131</v>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="O68" s="28" t="s">
+        <v>134</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="69">
       <c r="B69" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C69" s="27" t="s">
-        <v>129</v>
-      </c>
       <c r="D69" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="29"/>
+      <c r="G69" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H69" s="30" t="n">
+        <v>41338.5916666667</v>
+      </c>
+      <c r="I69" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J69" s="28"/>
       <c r="K69" s="28"/>
-      <c r="L69" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="M69" s="29" t="s">
-        <v>131</v>
-      </c>
+      <c r="L69" s="29"/>
+      <c r="M69" s="29"/>
+      <c r="N69" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O69" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="70">
       <c r="B70" s="26" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F70" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G70" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F70" s="28"/>
+      <c r="G70" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H70" s="30" t="n">
         <v>41338.5916666667</v>
       </c>
-      <c r="H70" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" s="29"/>
+      <c r="I70" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J70" s="28"/>
       <c r="K70" s="28"/>
-      <c r="L70" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L70" s="29"/>
       <c r="M70" s="29"/>
+      <c r="N70" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O70" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="71">
       <c r="B71" s="26" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F71" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G71" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F71" s="28"/>
+      <c r="G71" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H71" s="30" t="n">
         <v>41338.5916666667</v>
       </c>
-      <c r="H71" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" s="29"/>
+      <c r="I71" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J71" s="28"/>
       <c r="K71" s="28"/>
-      <c r="L71" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L71" s="29"/>
       <c r="M71" s="29"/>
+      <c r="N71" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O71" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="72">
       <c r="B72" s="26" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F72" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G72" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F72" s="28"/>
+      <c r="G72" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H72" s="30" t="n">
         <v>41338.5916666667</v>
       </c>
-      <c r="H72" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" s="29"/>
+      <c r="I72" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J72" s="28"/>
       <c r="K72" s="28"/>
-      <c r="L72" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L72" s="29"/>
       <c r="M72" s="29"/>
+      <c r="N72" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O72" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="73">
       <c r="B73" s="26" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F73" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G73" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F73" s="28"/>
+      <c r="G73" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H73" s="30" t="n">
         <v>41338.5916666667</v>
       </c>
-      <c r="H73" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" s="29"/>
+      <c r="I73" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J73" s="28"/>
       <c r="K73" s="28"/>
-      <c r="L73" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L73" s="29"/>
       <c r="M73" s="29"/>
+      <c r="N73" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O73" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="74">
       <c r="B74" s="26" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D74" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F74" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G74" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F74" s="28"/>
+      <c r="G74" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H74" s="30" t="n">
         <v>41338.5916666667</v>
       </c>
-      <c r="H74" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" s="29"/>
-      <c r="J74" s="28"/>
+      <c r="I74" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" s="28" t="s">
+        <v>142</v>
+      </c>
       <c r="K74" s="28"/>
-      <c r="L74" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L74" s="29"/>
       <c r="M74" s="29"/>
+      <c r="N74" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O74" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="75">
       <c r="B75" s="26" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F75" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G75" s="30" t="n">
-        <v>41338.5916666667</v>
-      </c>
-      <c r="H75" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" s="29" t="s">
-        <v>139</v>
+        <v>39</v>
+      </c>
+      <c r="F75" s="28"/>
+      <c r="G75" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H75" s="30" t="n">
+        <v>41338.6</v>
+      </c>
+      <c r="I75" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="J75" s="28"/>
       <c r="K75" s="28"/>
-      <c r="L75" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L75" s="29"/>
       <c r="M75" s="29"/>
+      <c r="N75" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O75" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="76">
       <c r="B76" s="26" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C76" s="27" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E76" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F76" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G76" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F76" s="28"/>
+      <c r="G76" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H76" s="30" t="n">
         <v>41338.6</v>
       </c>
-      <c r="H76" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" s="29"/>
+      <c r="I76" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J76" s="28"/>
       <c r="K76" s="28"/>
-      <c r="L76" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L76" s="29"/>
       <c r="M76" s="29"/>
+      <c r="N76" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O76" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="77">
       <c r="B77" s="26" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C77" s="27" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F77" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G77" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F77" s="45"/>
+      <c r="G77" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H77" s="30" t="n">
         <v>41338.6</v>
       </c>
-      <c r="H77" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" s="29"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="21" t="n">
-        <v>1</v>
+      <c r="I77" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="K77" s="45"/>
+      <c r="L77" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="M77" s="29"/>
+      <c r="N77" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O77" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="78">
       <c r="B78" s="26" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F78" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G78" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F78" s="28"/>
+      <c r="G78" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H78" s="30" t="n">
         <v>41338.6</v>
       </c>
-      <c r="H78" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="J78" s="9" t="s">
-        <v>143</v>
-      </c>
+      <c r="I78" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" s="28"/>
       <c r="K78" s="28"/>
-      <c r="L78" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L78" s="29"/>
       <c r="M78" s="29"/>
+      <c r="N78" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O78" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="79">
       <c r="B79" s="26" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F79" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G79" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="G79" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H79" s="30" t="n">
         <v>41338.6</v>
       </c>
-      <c r="H79" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" s="29"/>
-      <c r="J79" s="28"/>
-      <c r="K79" s="28"/>
-      <c r="L79" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="I79" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" s="29"/>
       <c r="M79" s="29"/>
+      <c r="N79" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O79" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="80">
       <c r="B80" s="26" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C80" s="27" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D80" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F80" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G80" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F80" s="45"/>
+      <c r="G80" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H80" s="30" t="n">
         <v>41338.6</v>
       </c>
-      <c r="H80" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" s="28"/>
-      <c r="K80" s="28"/>
-      <c r="L80" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="K80" s="45"/>
+      <c r="L80" s="29"/>
       <c r="M80" s="29"/>
+      <c r="N80" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O80" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="81">
       <c r="B81" s="26" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C81" s="27" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E81" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F81" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G81" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F81" s="28"/>
+      <c r="G81" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H81" s="30" t="n">
         <v>41338.6</v>
       </c>
-      <c r="H81" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" s="45" t="s">
-        <v>147</v>
+      <c r="I81" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="J81" s="28"/>
       <c r="K81" s="28"/>
-      <c r="L81" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L81" s="29"/>
       <c r="M81" s="29"/>
+      <c r="N81" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O81" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="82">
       <c r="B82" s="26" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E82" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F82" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G82" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="G82" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H82" s="30" t="n">
         <v>41338.6</v>
       </c>
-      <c r="H82" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" s="29"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="28"/>
-      <c r="L82" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="I82" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" s="29"/>
       <c r="M82" s="29"/>
+      <c r="N82" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O82" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="83">
       <c r="B83" s="26" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D83" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E83" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F83" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G83" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F83" s="28"/>
+      <c r="G83" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H83" s="30" t="n">
         <v>41338.6</v>
       </c>
-      <c r="H83" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" s="28"/>
+      <c r="I83" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" s="28" t="s">
+        <v>154</v>
+      </c>
       <c r="K83" s="28"/>
-      <c r="L83" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L83" s="29"/>
       <c r="M83" s="29"/>
+      <c r="N83" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O83" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="84">
       <c r="B84" s="26" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D84" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E84" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F84" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G84" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F84" s="28"/>
+      <c r="G84" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H84" s="30" t="n">
         <v>41338.6</v>
       </c>
-      <c r="H84" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" s="29" t="s">
-        <v>151</v>
+      <c r="I84" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="J84" s="28"/>
       <c r="K84" s="28"/>
-      <c r="L84" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L84" s="29"/>
       <c r="M84" s="29"/>
+      <c r="N84" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O84" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="85">
       <c r="B85" s="26" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D85" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E85" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F85" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G85" s="30" t="n">
-        <v>41338.6</v>
-      </c>
-      <c r="H85" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" s="29"/>
+        <v>39</v>
+      </c>
+      <c r="F85" s="28"/>
+      <c r="G85" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H85" s="30" t="n">
+        <v>41338.6041666667</v>
+      </c>
+      <c r="I85" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J85" s="28"/>
       <c r="K85" s="28"/>
-      <c r="L85" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L85" s="29"/>
       <c r="M85" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="86">
-      <c r="B86" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="C86" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="D86" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E86" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F86" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G86" s="30" t="n">
-        <v>41338.6041666667</v>
-      </c>
-      <c r="H86" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" s="29"/>
-      <c r="J86" s="28"/>
-      <c r="K86" s="28"/>
-      <c r="L86" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="81.95" outlineLevel="0" r="87" s="52">
-      <c r="A87" s="46"/>
-      <c r="B87" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="C87" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="D87" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="E87" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="F87" s="48"/>
-      <c r="G87" s="48"/>
-      <c r="H87" s="49"/>
-      <c r="I87" s="50"/>
-      <c r="J87" s="48"/>
-      <c r="K87" s="48"/>
-      <c r="L87" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" s="50"/>
-      <c r="N87" s="51"/>
-      <c r="AMH87" s="51"/>
-      <c r="AMI87" s="51"/>
-      <c r="AMJ87" s="51"/>
+      <c r="N85" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O85" s="28"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="81.95" outlineLevel="0" r="86" s="52">
+      <c r="A86" s="46"/>
+      <c r="B86" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="C86" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="D86" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E86" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="F86" s="48"/>
+      <c r="G86" s="49"/>
+      <c r="H86" s="49"/>
+      <c r="I86" s="50"/>
+      <c r="J86" s="48"/>
+      <c r="K86" s="48"/>
+      <c r="L86" s="49"/>
+      <c r="M86" s="49"/>
+      <c r="N86" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="O86" s="48"/>
+      <c r="P86" s="51"/>
+      <c r="AMJ86" s="51"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="87">
+      <c r="B87" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C87" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E87" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="F87" s="28"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="28"/>
+      <c r="L87" s="29"/>
+      <c r="M87" s="29"/>
+      <c r="N87" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="O87" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="88">
+      <c r="A88" s="32"/>
       <c r="B88" s="53" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D88" s="27" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E88" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="21"/>
-      <c r="I88" s="29"/>
-      <c r="J88" s="28"/>
-      <c r="K88" s="28"/>
-      <c r="L88" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="M88" s="29"/>
+        <v>109</v>
+      </c>
+      <c r="F88" s="35"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="35"/>
+      <c r="K88" s="35"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O88" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="P88" s="39"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="89">
       <c r="A89" s="32"/>
       <c r="B89" s="53" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D89" s="27" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E89" s="27" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F89" s="35"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="37"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
       <c r="I89" s="38"/>
-      <c r="J89" s="35"/>
+      <c r="J89" s="35" t="s">
+        <v>162</v>
+      </c>
       <c r="K89" s="35"/>
-      <c r="L89" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="N89" s="39"/>
+      <c r="L89" s="36"/>
+      <c r="M89" s="36"/>
+      <c r="N89" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O89" s="35"/>
+      <c r="P89" s="39"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="90">
       <c r="A90" s="32"/>
       <c r="B90" s="53" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C90" s="34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D90" s="27" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E90" s="27" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F90" s="35"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="37"/>
-      <c r="I90" s="38" t="s">
-        <v>159</v>
-      </c>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="38"/>
       <c r="J90" s="35"/>
       <c r="K90" s="35"/>
-      <c r="L90" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" s="38"/>
-      <c r="N90" s="39"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="91">
-      <c r="A91" s="32"/>
-      <c r="B91" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="C91" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D91" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E91" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="F91" s="35"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="37"/>
-      <c r="I91" s="38"/>
-      <c r="J91" s="35"/>
-      <c r="K91" s="35"/>
-      <c r="L91" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" s="38"/>
-      <c r="N91" s="39"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="88.5" outlineLevel="0" r="92">
-      <c r="A92" s="15"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="20"/>
-      <c r="J92" s="23"/>
-      <c r="K92" s="23"/>
-      <c r="L92" s="19"/>
-      <c r="M92" s="20"/>
-      <c r="N92" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="58.7" outlineLevel="0" r="93">
-      <c r="B93" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="J93" s="25"/>
-      <c r="K93" s="25"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="36"/>
+      <c r="N90" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O90" s="35"/>
+      <c r="P90" s="39"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="88.5" outlineLevel="0" r="91">
+      <c r="A91" s="15"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="23"/>
+      <c r="M91" s="23"/>
+      <c r="N91" s="20"/>
+      <c r="O91" s="18"/>
+      <c r="P91" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="58.7" outlineLevel="0" r="92">
+      <c r="B92" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
+      <c r="L92" s="25"/>
+      <c r="M92" s="25"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="93" s="39">
+      <c r="A93" s="1"/>
+      <c r="B93" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C93" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D93" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E93" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F93" s="28"/>
+      <c r="G93" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H93" s="30" t="n">
+        <v>41338.6131944444</v>
+      </c>
+      <c r="I93" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="K93" s="28"/>
+      <c r="L93" s="29"/>
+      <c r="M93" s="29"/>
+      <c r="N93" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O93" s="28"/>
+      <c r="P93" s="0"/>
+      <c r="AMJ93" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="94" s="39">
       <c r="A94" s="1"/>
       <c r="B94" s="27" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C94" s="27" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D94" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E94" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F94" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G94" s="30" t="n">
-        <v>41338.6131944444</v>
-      </c>
-      <c r="H94" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="J94" s="28"/>
+        <v>39</v>
+      </c>
+      <c r="F94" s="28"/>
+      <c r="G94" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H94" s="30" t="n">
+        <v>41338.6</v>
+      </c>
+      <c r="I94" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" s="28" t="s">
+        <v>169</v>
+      </c>
       <c r="K94" s="28"/>
-      <c r="L94" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L94" s="29"/>
       <c r="M94" s="29"/>
-      <c r="N94" s="0"/>
-      <c r="AMH94" s="0"/>
-      <c r="AMI94" s="0"/>
+      <c r="N94" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O94" s="28"/>
+      <c r="P94" s="0"/>
       <c r="AMJ94" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="95" s="39">
       <c r="A95" s="1"/>
       <c r="B95" s="27" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C95" s="27" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D95" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E95" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F95" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G95" s="30" t="n">
-        <v>41338.6</v>
-      </c>
-      <c r="H95" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" s="29" t="s">
-        <v>166</v>
+        <v>39</v>
+      </c>
+      <c r="F95" s="28"/>
+      <c r="G95" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H95" s="30" t="n">
+        <v>41338.6138888889</v>
+      </c>
+      <c r="I95" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="J95" s="28"/>
       <c r="K95" s="28"/>
-      <c r="L95" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L95" s="29"/>
       <c r="M95" s="29"/>
-      <c r="N95" s="0"/>
-      <c r="AMH95" s="0"/>
-      <c r="AMI95" s="0"/>
+      <c r="N95" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O95" s="28"/>
+      <c r="P95" s="0"/>
       <c r="AMJ95" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="96" s="39">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="64.45" outlineLevel="0" r="96" s="39">
       <c r="A96" s="1"/>
       <c r="B96" s="27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D96" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E96" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F96" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G96" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F96" s="28"/>
+      <c r="G96" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H96" s="30" t="n">
         <v>41338.6138888889</v>
       </c>
-      <c r="H96" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" s="29"/>
+      <c r="I96" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J96" s="28"/>
       <c r="K96" s="28"/>
-      <c r="L96" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L96" s="29"/>
       <c r="M96" s="29"/>
-      <c r="N96" s="0"/>
-      <c r="AMH96" s="0"/>
-      <c r="AMI96" s="0"/>
+      <c r="N96" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O96" s="28"/>
+      <c r="P96" s="0"/>
       <c r="AMJ96" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="64.45" outlineLevel="0" r="97" s="39">
-      <c r="A97" s="1"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="97">
       <c r="B97" s="27" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C97" s="27" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D97" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E97" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F97" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G97" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F97" s="28"/>
+      <c r="G97" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H97" s="30" t="n">
         <v>41338.6138888889</v>
       </c>
-      <c r="H97" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" s="29"/>
+      <c r="I97" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J97" s="28"/>
       <c r="K97" s="28"/>
-      <c r="L97" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L97" s="29"/>
       <c r="M97" s="29"/>
-      <c r="N97" s="0"/>
-      <c r="AMH97" s="0"/>
-      <c r="AMI97" s="0"/>
-      <c r="AMJ97" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="98">
+      <c r="N97" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O97" s="28"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="61.5" outlineLevel="0" r="98">
       <c r="B98" s="27" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C98" s="27" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D98" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E98" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F98" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G98" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F98" s="28"/>
+      <c r="G98" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H98" s="30" t="n">
         <v>41338.6138888889</v>
       </c>
-      <c r="H98" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" s="29"/>
+      <c r="I98" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J98" s="28"/>
       <c r="K98" s="28"/>
-      <c r="L98" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L98" s="29"/>
       <c r="M98" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="61.5" outlineLevel="0" r="99">
+      <c r="N98" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O98" s="28"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="104" outlineLevel="0" r="99" s="54">
+      <c r="A99" s="1"/>
       <c r="B99" s="27" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C99" s="27" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D99" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E99" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F99" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G99" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F99" s="28"/>
+      <c r="G99" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H99" s="30" t="n">
         <v>41338.6138888889</v>
       </c>
-      <c r="H99" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" s="29"/>
+      <c r="I99" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J99" s="28"/>
       <c r="K99" s="28"/>
-      <c r="L99" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L99" s="29"/>
       <c r="M99" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="104" outlineLevel="0" r="100" s="54">
+      <c r="N99" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O99" s="28"/>
+      <c r="P99" s="0"/>
+      <c r="AMJ99" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="72" outlineLevel="0" r="100" s="39">
       <c r="A100" s="1"/>
       <c r="B100" s="27" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C100" s="27" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D100" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E100" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F100" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G100" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F100" s="28"/>
+      <c r="G100" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H100" s="30" t="n">
         <v>41338.6138888889</v>
       </c>
-      <c r="H100" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" s="29"/>
+      <c r="I100" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J100" s="28"/>
       <c r="K100" s="28"/>
-      <c r="L100" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L100" s="29"/>
       <c r="M100" s="29"/>
-      <c r="N100" s="0"/>
-      <c r="AMH100" s="0"/>
-      <c r="AMI100" s="0"/>
+      <c r="N100" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O100" s="28"/>
+      <c r="P100" s="0"/>
       <c r="AMJ100" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="72" outlineLevel="0" r="101" s="39">
-      <c r="A101" s="1"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="101">
       <c r="B101" s="27" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C101" s="27" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D101" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F101" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G101" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F101" s="28"/>
+      <c r="G101" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H101" s="30" t="n">
         <v>41338.6138888889</v>
       </c>
-      <c r="H101" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" s="29"/>
+      <c r="I101" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J101" s="28"/>
       <c r="K101" s="28"/>
-      <c r="L101" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L101" s="29"/>
       <c r="M101" s="29"/>
-      <c r="N101" s="0"/>
-      <c r="AMH101" s="0"/>
-      <c r="AMI101" s="0"/>
-      <c r="AMJ101" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="102">
+      <c r="N101" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O101" s="28"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="102">
       <c r="B102" s="27" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C102" s="27" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D102" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E102" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F102" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G102" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F102" s="28"/>
+      <c r="G102" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H102" s="30" t="n">
         <v>41338.6138888889</v>
       </c>
-      <c r="H102" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" s="29"/>
+      <c r="I102" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="J102" s="28"/>
       <c r="K102" s="28"/>
-      <c r="L102" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L102" s="29"/>
       <c r="M102" s="29"/>
+      <c r="N102" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O102" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="103">
       <c r="B103" s="27" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C103" s="27" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D103" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E103" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F103" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G103" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F103" s="28"/>
+      <c r="G103" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H103" s="30" t="n">
         <v>41338.6138888889</v>
       </c>
-      <c r="H103" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" s="29"/>
-      <c r="J103" s="28"/>
+      <c r="I103" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" s="28" t="s">
+        <v>179</v>
+      </c>
       <c r="K103" s="28"/>
-      <c r="L103" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L103" s="29"/>
       <c r="M103" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="104">
+      <c r="N103" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O103" s="28"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="104">
       <c r="B104" s="27" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C104" s="27" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D104" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E104" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F104" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G104" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F104" s="28"/>
+      <c r="G104" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H104" s="30" t="n">
         <v>41338.6138888889</v>
       </c>
-      <c r="H104" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="J104" s="28"/>
+      <c r="I104" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" s="28" t="s">
+        <v>181</v>
+      </c>
       <c r="K104" s="28"/>
-      <c r="L104" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L104" s="29"/>
       <c r="M104" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="105">
+      <c r="N104" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O104" s="28"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="73.5" outlineLevel="0" r="105">
       <c r="B105" s="27" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C105" s="27" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D105" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F105" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G105" s="30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F105" s="28"/>
+      <c r="G105" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H105" s="30" t="n">
         <v>41338.6138888889</v>
       </c>
-      <c r="H105" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="J105" s="28"/>
+      <c r="I105" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" s="28" t="s">
+        <v>183</v>
+      </c>
       <c r="K105" s="28"/>
-      <c r="L105" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L105" s="29"/>
       <c r="M105" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="73.5" outlineLevel="0" r="106">
-      <c r="B106" s="27" t="s">
-        <v>179</v>
+      <c r="N105" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O105" s="28"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="114.95" outlineLevel="0" r="106">
+      <c r="B106" s="26" t="s">
+        <v>184</v>
       </c>
       <c r="C106" s="27" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D106" s="27" t="s">
-        <v>35</v>
+        <v>186</v>
       </c>
       <c r="E106" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F106" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G106" s="30" t="n">
-        <v>41338.6138888889</v>
-      </c>
-      <c r="H106" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="J106" s="28"/>
+        <v>187</v>
+      </c>
+      <c r="F106" s="28"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="29"/>
+      <c r="I106" s="21"/>
+      <c r="J106" s="28" t="s">
+        <v>188</v>
+      </c>
       <c r="K106" s="28"/>
-      <c r="L106" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L106" s="29"/>
       <c r="M106" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="114.95" outlineLevel="0" r="107">
-      <c r="B107" s="26" t="s">
-        <v>181</v>
+      <c r="N106" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O106" s="28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="111.3" outlineLevel="0" r="107">
+      <c r="B107" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="C107" s="27" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="D107" s="27" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="21"/>
-      <c r="I107" s="29" t="s">
-        <v>185</v>
+      <c r="G107" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H107" s="30" t="n">
+        <v>41338.6194444444</v>
+      </c>
+      <c r="I107" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="J107" s="28"/>
       <c r="K107" s="28"/>
-      <c r="L107" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" s="29" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="111.3" outlineLevel="0" r="108">
-      <c r="B108" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C108" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="D108" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E108" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="F108" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G108" s="30" t="n">
+      <c r="L107" s="29"/>
+      <c r="M107" s="29"/>
+      <c r="N107" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O107" s="28"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="68.5" outlineLevel="0" r="108" s="52">
+      <c r="A108" s="46"/>
+      <c r="B108" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="C108" s="56"/>
+      <c r="D108" s="56"/>
+      <c r="E108" s="56"/>
+      <c r="F108" s="48"/>
+      <c r="G108" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="H108" s="57" t="n">
         <v>41338.6194444444</v>
       </c>
-      <c r="H108" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" s="29"/>
-      <c r="J108" s="28"/>
-      <c r="K108" s="28"/>
-      <c r="L108" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="68.5" outlineLevel="0" r="109" s="52">
-      <c r="A109" s="46"/>
-      <c r="B109" s="55" t="s">
-        <v>189</v>
-      </c>
-      <c r="C109" s="56"/>
-      <c r="D109" s="56"/>
-      <c r="E109" s="56"/>
-      <c r="F109" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="G109" s="57" t="n">
+      <c r="I108" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" s="48"/>
+      <c r="K108" s="48"/>
+      <c r="L108" s="49"/>
+      <c r="M108" s="49"/>
+      <c r="N108" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="O108" s="48"/>
+      <c r="P108" s="51"/>
+      <c r="AMJ108" s="51"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="109">
+      <c r="B109" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="C109" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D109" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E109" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="F109" s="28"/>
+      <c r="G109" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H109" s="30" t="n">
         <v>41338.6194444444</v>
       </c>
-      <c r="H109" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" s="50"/>
-      <c r="J109" s="48"/>
-      <c r="K109" s="48"/>
-      <c r="L109" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" s="50"/>
-      <c r="N109" s="51"/>
-      <c r="AMH109" s="51"/>
-      <c r="AMI109" s="51"/>
-      <c r="AMJ109" s="51"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="110">
+      <c r="I109" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" s="28"/>
+      <c r="K109" s="28"/>
+      <c r="L109" s="29"/>
+      <c r="M109" s="29"/>
+      <c r="N109" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O109" s="28"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="44" outlineLevel="0" r="110">
+      <c r="A110" s="32"/>
       <c r="B110" s="53" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C110" s="34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D110" s="27" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E110" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="F110" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G110" s="30" t="n">
+        <v>109</v>
+      </c>
+      <c r="F110" s="35"/>
+      <c r="G110" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="H110" s="37" t="n">
         <v>41338.6194444444</v>
       </c>
-      <c r="H110" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" s="29"/>
-      <c r="J110" s="28"/>
-      <c r="K110" s="28"/>
-      <c r="L110" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" s="29"/>
+      <c r="I110" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" s="35"/>
+      <c r="K110" s="35"/>
+      <c r="L110" s="36"/>
+      <c r="M110" s="36"/>
+      <c r="N110" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O110" s="35"/>
+      <c r="P110" s="39"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="44" outlineLevel="0" r="111">
       <c r="A111" s="32"/>
       <c r="B111" s="53" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C111" s="34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D111" s="27" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E111" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="F111" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="G111" s="36" t="n">
+        <v>109</v>
+      </c>
+      <c r="F111" s="35"/>
+      <c r="G111" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="H111" s="37" t="n">
         <v>41338.6194444444</v>
       </c>
-      <c r="H111" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" s="38"/>
-      <c r="J111" s="35"/>
+      <c r="I111" s="38" t="n">
+        <v>9</v>
+      </c>
+      <c r="J111" s="35" t="s">
+        <v>196</v>
+      </c>
       <c r="K111" s="35"/>
-      <c r="L111" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" s="38"/>
-      <c r="N111" s="39"/>
+      <c r="L111" s="36"/>
+      <c r="M111" s="36"/>
+      <c r="N111" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O111" s="35"/>
+      <c r="P111" s="39"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="44" outlineLevel="0" r="112">
       <c r="A112" s="32"/>
       <c r="B112" s="53" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C112" s="34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D112" s="27" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E112" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="F112" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="G112" s="36" t="n">
-        <v>41338.6194444444</v>
+        <v>109</v>
+      </c>
+      <c r="F112" s="35"/>
+      <c r="G112" s="36" t="s">
+        <v>88</v>
       </c>
       <c r="H112" s="37" t="n">
-        <v>9</v>
-      </c>
-      <c r="I112" s="38" t="s">
-        <v>193</v>
+        <v>41338.6263888889</v>
+      </c>
+      <c r="I112" s="38" t="n">
+        <v>1</v>
       </c>
       <c r="J112" s="35"/>
       <c r="K112" s="35"/>
-      <c r="L112" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" s="38"/>
-      <c r="N112" s="39"/>
+      <c r="L112" s="36"/>
+      <c r="M112" s="36"/>
+      <c r="N112" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O112" s="35"/>
+      <c r="P112" s="39"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="44" outlineLevel="0" r="113">
       <c r="A113" s="32"/>
       <c r="B113" s="53" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C113" s="34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D113" s="27" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E113" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="F113" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="G113" s="36" t="n">
+        <v>109</v>
+      </c>
+      <c r="F113" s="35"/>
+      <c r="G113" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="H113" s="37" t="n">
         <v>41338.6263888889</v>
       </c>
-      <c r="H113" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" s="38"/>
+      <c r="I113" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="J113" s="35"/>
       <c r="K113" s="35"/>
-      <c r="L113" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" s="38"/>
-      <c r="N113" s="39"/>
+      <c r="L113" s="36"/>
+      <c r="M113" s="36"/>
+      <c r="N113" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O113" s="35"/>
+      <c r="P113" s="39"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="44" outlineLevel="0" r="114">
       <c r="A114" s="32"/>
       <c r="B114" s="53" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C114" s="34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D114" s="27" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E114" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="F114" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="G114" s="36" t="n">
+        <v>109</v>
+      </c>
+      <c r="F114" s="35"/>
+      <c r="G114" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="H114" s="37" t="n">
         <v>41338.6263888889</v>
       </c>
-      <c r="H114" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" s="38"/>
-      <c r="J114" s="35"/>
+      <c r="I114" s="38" t="n">
+        <v>9</v>
+      </c>
+      <c r="J114" s="35" t="s">
+        <v>200</v>
+      </c>
       <c r="K114" s="35"/>
-      <c r="L114" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" s="38"/>
-      <c r="N114" s="39"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="44" outlineLevel="0" r="115">
+      <c r="L114" s="36"/>
+      <c r="M114" s="36"/>
+      <c r="N114" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O114" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="P114" s="39" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="115">
       <c r="A115" s="32"/>
       <c r="B115" s="53" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C115" s="34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D115" s="27" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E115" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="F115" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="G115" s="36" t="n">
-        <v>41338.6263888889</v>
-      </c>
-      <c r="H115" s="37" t="n">
-        <v>9</v>
-      </c>
-      <c r="I115" s="38" t="s">
-        <v>197</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="F115" s="35"/>
+      <c r="G115" s="36"/>
+      <c r="H115" s="36"/>
+      <c r="I115" s="38"/>
       <c r="J115" s="35"/>
       <c r="K115" s="35"/>
-      <c r="L115" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="N115" s="39" t="s">
-        <v>199</v>
-      </c>
+      <c r="L115" s="36"/>
+      <c r="M115" s="36"/>
+      <c r="N115" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O115" s="35"/>
+      <c r="P115" s="39"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="116">
       <c r="A116" s="32"/>
       <c r="B116" s="53" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C116" s="34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D116" s="27" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E116" s="27" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F116" s="35"/>
-      <c r="G116" s="35"/>
-      <c r="H116" s="37"/>
-      <c r="I116" s="38"/>
+      <c r="G116" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="H116" s="37" t="n">
+        <v>41338.6298611111</v>
+      </c>
+      <c r="I116" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="J116" s="35"/>
       <c r="K116" s="35"/>
-      <c r="L116" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" s="38"/>
-      <c r="N116" s="39"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="117">
-      <c r="A117" s="32"/>
-      <c r="B117" s="53" t="s">
-        <v>201</v>
-      </c>
-      <c r="C117" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D117" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E117" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="F117" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="G117" s="36" t="n">
-        <v>41338.6298611111</v>
-      </c>
-      <c r="H117" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" s="38"/>
-      <c r="J117" s="35"/>
-      <c r="K117" s="35"/>
-      <c r="L117" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" s="38"/>
-      <c r="N117" s="39"/>
+      <c r="L116" s="36"/>
+      <c r="M116" s="36"/>
+      <c r="N116" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O116" s="35"/>
+      <c r="P116" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
